--- a/data/134/DEUSTATIS/National accounts - Population and employment quarters.xlsx
+++ b/data/134/DEUSTATIS/National accounts - Population and employment quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="66">
   <si>
     <t>National accounts - Population, employment: Germany,
 quarters, original and adjusted data</t>
@@ -144,9 +144,6 @@
     <t>1000</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Economically inactive population</t>
   </si>
   <si>
@@ -213,7 +210,7 @@
     <t>Including family workers.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:45:02</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:14:33</t>
   </si>
 </sst>
 </file>
@@ -3840,216 +3837,216 @@
         <v>83194.0</v>
       </c>
       <c r="DS7" t="n" s="11">
-        <v>83127.0</v>
+        <v>83158.0</v>
       </c>
       <c r="DT7" t="n" s="11">
-        <v>83122.0</v>
+        <v>83153.0</v>
       </c>
       <c r="DU7" t="n" s="11">
-        <v>83146.0</v>
-      </c>
-      <c r="DV7" t="s" s="11">
-        <v>43</v>
+        <v>83199.0</v>
+      </c>
+      <c r="DV7" t="n" s="11">
+        <v>83273.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s" s="14">
         <v>42</v>
       </c>
       <c r="C8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AK8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AN8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AP8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AQ8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AR8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AS8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AT8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AU8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AV8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AW8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AX8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AY8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AZ8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BA8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BB8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BC8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BD8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BE8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BG8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BH8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BI8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BJ8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BK8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BL8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BM8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BN8" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BO8" t="n" s="11">
         <v>37545.0</v>
@@ -4220,216 +4217,216 @@
         <v>36692.0</v>
       </c>
       <c r="DS8" t="n" s="11">
-        <v>36984.0</v>
+        <v>37030.0</v>
       </c>
       <c r="DT8" t="n" s="11">
-        <v>36950.0</v>
+        <v>36954.0</v>
       </c>
       <c r="DU8" t="n" s="11">
-        <v>36851.0</v>
-      </c>
-      <c r="DV8" t="s" s="11">
-        <v>43</v>
+        <v>36893.0</v>
+      </c>
+      <c r="DV8" t="n" s="11">
+        <v>36668.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s" s="14">
         <v>42</v>
       </c>
       <c r="C9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AN9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AP9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AQ9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AR9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AS9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AT9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AU9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AV9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AW9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AX9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AY9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AZ9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BA9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BB9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BC9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BD9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BE9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BG9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BH9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BI9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BJ9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BK9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BL9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BM9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BN9" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BO9" t="n" s="11">
         <v>43473.0</v>
@@ -4600,216 +4597,216 @@
         <v>46502.0</v>
       </c>
       <c r="DS9" t="n" s="11">
-        <v>46143.0</v>
+        <v>46128.0</v>
       </c>
       <c r="DT9" t="n" s="11">
-        <v>46172.0</v>
+        <v>46199.0</v>
       </c>
       <c r="DU9" t="n" s="11">
-        <v>46295.0</v>
-      </c>
-      <c r="DV9" t="s" s="11">
-        <v>43</v>
+        <v>46306.0</v>
+      </c>
+      <c r="DV9" t="n" s="11">
+        <v>46605.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="14">
         <v>42</v>
       </c>
       <c r="C10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AN10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AP10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AQ10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AR10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AS10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AT10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AU10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AV10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AW10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AX10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AY10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AZ10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BA10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BB10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BC10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BD10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BE10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BG10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BH10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BI10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BJ10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BK10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BL10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BM10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BN10" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BO10" t="n" s="11">
         <v>3770.0</v>
@@ -4980,21 +4977,21 @@
         <v>1623.0</v>
       </c>
       <c r="DS10" t="n" s="11">
-        <v>1754.0</v>
+        <v>1738.0</v>
       </c>
       <c r="DT10" t="n" s="11">
-        <v>1560.0</v>
+        <v>1580.0</v>
       </c>
       <c r="DU10" t="n" s="11">
-        <v>1405.0</v>
-      </c>
-      <c r="DV10" t="s" s="11">
-        <v>43</v>
+        <v>1390.0</v>
+      </c>
+      <c r="DV10" t="n" s="11">
+        <v>1315.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="14">
         <v>42</v>
@@ -5360,21 +5357,21 @@
         <v>44879.0</v>
       </c>
       <c r="DS11" t="n" s="11">
-        <v>44389.0</v>
+        <v>44390.0</v>
       </c>
       <c r="DT11" t="n" s="11">
-        <v>44612.0</v>
+        <v>44619.0</v>
       </c>
       <c r="DU11" t="n" s="11">
-        <v>44890.0</v>
-      </c>
-      <c r="DV11" t="s" s="11">
-        <v>43</v>
+        <v>44916.0</v>
+      </c>
+      <c r="DV11" t="n" s="11">
+        <v>45290.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="14">
         <v>42</v>
@@ -5743,18 +5740,18 @@
         <v>3947.0</v>
       </c>
       <c r="DT12" t="n" s="11">
-        <v>3925.0</v>
+        <v>3924.0</v>
       </c>
       <c r="DU12" t="n" s="11">
-        <v>3933.0</v>
-      </c>
-      <c r="DV12" t="s" s="11">
-        <v>43</v>
+        <v>3932.0</v>
+      </c>
+      <c r="DV12" t="n" s="11">
+        <v>3913.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="14">
         <v>42</v>
@@ -6120,21 +6117,21 @@
         <v>40897.0</v>
       </c>
       <c r="DS13" t="n" s="11">
-        <v>40442.0</v>
+        <v>40443.0</v>
       </c>
       <c r="DT13" t="n" s="11">
-        <v>40687.0</v>
+        <v>40695.0</v>
       </c>
       <c r="DU13" t="n" s="11">
-        <v>40957.0</v>
-      </c>
-      <c r="DV13" t="s" s="11">
-        <v>43</v>
+        <v>40984.0</v>
+      </c>
+      <c r="DV13" t="n" s="11">
+        <v>41377.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s" s="14">
         <v>42</v>
@@ -6500,21 +6497,21 @@
         <v>86.0</v>
       </c>
       <c r="DS14" t="n" s="11">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="DT14" t="n" s="11">
-        <v>122.0</v>
+        <v>123.0</v>
       </c>
       <c r="DU14" t="n" s="11">
-        <v>171.0</v>
-      </c>
-      <c r="DV14" t="s" s="11">
-        <v>43</v>
+        <v>172.0</v>
+      </c>
+      <c r="DV14" t="n" s="11">
+        <v>109.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s" s="14">
         <v>42</v>
@@ -6883,18 +6880,18 @@
         <v>40504.0</v>
       </c>
       <c r="DT15" t="n" s="11">
-        <v>40809.0</v>
+        <v>40818.0</v>
       </c>
       <c r="DU15" t="n" s="11">
-        <v>41128.0</v>
-      </c>
-      <c r="DV15" t="s" s="11">
-        <v>43</v>
+        <v>41156.0</v>
+      </c>
+      <c r="DV15" t="n" s="11">
+        <v>41486.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s" s="14">
         <v>42</v>
@@ -7263,18 +7260,18 @@
         <v>3947.0</v>
       </c>
       <c r="DT16" t="n" s="11">
-        <v>3925.0</v>
+        <v>3924.0</v>
       </c>
       <c r="DU16" t="n" s="11">
-        <v>3933.0</v>
-      </c>
-      <c r="DV16" t="s" s="11">
-        <v>43</v>
+        <v>3932.0</v>
+      </c>
+      <c r="DV16" t="n" s="11">
+        <v>3913.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s" s="14">
         <v>42</v>
@@ -7643,213 +7640,213 @@
         <v>44451.0</v>
       </c>
       <c r="DT17" t="n" s="11">
-        <v>44734.0</v>
+        <v>44742.0</v>
       </c>
       <c r="DU17" t="n" s="11">
-        <v>45061.0</v>
-      </c>
-      <c r="DV17" t="s" s="11">
-        <v>43</v>
+        <v>45088.0</v>
+      </c>
+      <c r="DV17" t="n" s="11">
+        <v>45399.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s" s="14">
         <v>55</v>
       </c>
-      <c r="B18" t="s" s="14">
-        <v>56</v>
-      </c>
       <c r="C18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AM18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AN18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AP18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AQ18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AR18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AS18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AT18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AU18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AV18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AW18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AX18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AY18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AZ18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BA18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BB18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BC18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BD18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BE18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BG18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BH18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BI18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BJ18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BK18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BL18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BM18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BN18" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BO18" t="n" s="11">
         <v>53.7</v>
@@ -8023,213 +8020,213 @@
         <v>55.5</v>
       </c>
       <c r="DT18" t="n" s="11">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="DU18" t="n" s="11">
         <v>55.7</v>
       </c>
-      <c r="DV18" t="s" s="11">
-        <v>43</v>
+      <c r="DV18" t="n" s="11">
+        <v>56.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s" s="14">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AL19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AM19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AN19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AP19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AQ19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AR19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AS19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AT19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AU19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AV19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AW19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AX19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AY19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AZ19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BA19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BB19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BC19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BD19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BE19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BF19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BG19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BH19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BI19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BJ19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BK19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BL19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BM19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BN19" t="s" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BO19" t="n" s="11">
         <v>8.7</v>
@@ -8408,13 +8405,13 @@
       <c r="DU19" t="n" s="11">
         <v>3.0</v>
       </c>
-      <c r="DV19" t="s" s="11">
-        <v>43</v>
+      <c r="DV19" t="n" s="11">
+        <v>2.8</v>
       </c>
     </row>
     <row r="20" ht="33.75" customHeight="true">
       <c r="A20" t="s" s="15">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
@@ -8785,21 +8782,21 @@
         <v>83159.0</v>
       </c>
       <c r="DS21" t="n" s="11">
-        <v>83132.0</v>
+        <v>83163.0</v>
       </c>
       <c r="DT21" t="n" s="11">
-        <v>83143.0</v>
+        <v>83174.0</v>
       </c>
       <c r="DU21" t="n" s="11">
-        <v>83155.0</v>
-      </c>
-      <c r="DV21" t="s" s="11">
-        <v>43</v>
+        <v>83208.0</v>
+      </c>
+      <c r="DV21" t="n" s="11">
+        <v>83238.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s" s="14">
         <v>42</v>
@@ -8874,7 +8871,7 @@
         <v>39996.0</v>
       </c>
       <c r="Z22" t="n" s="11">
-        <v>39959.0</v>
+        <v>39960.0</v>
       </c>
       <c r="AA22" t="n" s="11">
         <v>39920.0</v>
@@ -8898,7 +8895,7 @@
         <v>39242.0</v>
       </c>
       <c r="AH22" t="n" s="11">
-        <v>39149.0</v>
+        <v>39150.0</v>
       </c>
       <c r="AI22" t="n" s="11">
         <v>39150.0</v>
@@ -8949,7 +8946,7 @@
         <v>38649.0</v>
       </c>
       <c r="AY22" t="n" s="11">
-        <v>38613.0</v>
+        <v>38615.0</v>
       </c>
       <c r="AZ22" t="n" s="11">
         <v>38686.0</v>
@@ -8994,7 +8991,7 @@
         <v>37485.0</v>
       </c>
       <c r="BN22" t="n" s="11">
-        <v>37428.0</v>
+        <v>37427.0</v>
       </c>
       <c r="BO22" t="n" s="11">
         <v>37389.0</v>
@@ -9009,7 +9006,7 @@
         <v>37182.0</v>
       </c>
       <c r="BS22" t="n" s="11">
-        <v>37017.0</v>
+        <v>37018.0</v>
       </c>
       <c r="BT22" t="n" s="11">
         <v>37004.0</v>
@@ -9096,7 +9093,7 @@
         <v>36569.0</v>
       </c>
       <c r="CV22" t="n" s="11">
-        <v>36580.0</v>
+        <v>36581.0</v>
       </c>
       <c r="CW22" t="n" s="11">
         <v>36705.0</v>
@@ -9105,7 +9102,7 @@
         <v>36949.0</v>
       </c>
       <c r="CY22" t="n" s="11">
-        <v>37015.0</v>
+        <v>37016.0</v>
       </c>
       <c r="CZ22" t="n" s="11">
         <v>37008.0</v>
@@ -9117,69 +9114,69 @@
         <v>36991.0</v>
       </c>
       <c r="DC22" t="n" s="11">
-        <v>36971.0</v>
+        <v>36972.0</v>
       </c>
       <c r="DD22" t="n" s="11">
         <v>36943.0</v>
       </c>
       <c r="DE22" t="n" s="11">
-        <v>36877.0</v>
+        <v>36875.0</v>
       </c>
       <c r="DF22" t="n" s="11">
-        <v>36833.0</v>
+        <v>36834.0</v>
       </c>
       <c r="DG22" t="n" s="11">
-        <v>36769.0</v>
+        <v>36770.0</v>
       </c>
       <c r="DH22" t="n" s="11">
-        <v>36713.0</v>
+        <v>36712.0</v>
       </c>
       <c r="DI22" t="n" s="11">
-        <v>36702.0</v>
+        <v>36698.0</v>
       </c>
       <c r="DJ22" t="n" s="11">
-        <v>36683.0</v>
+        <v>36685.0</v>
       </c>
       <c r="DK22" t="n" s="11">
-        <v>36606.0</v>
+        <v>36610.0</v>
       </c>
       <c r="DL22" t="n" s="11">
-        <v>36588.0</v>
+        <v>36596.0</v>
       </c>
       <c r="DM22" t="n" s="11">
-        <v>36630.0</v>
+        <v>36623.0</v>
       </c>
       <c r="DN22" t="n" s="11">
-        <v>36549.0</v>
+        <v>36542.0</v>
       </c>
       <c r="DO22" t="n" s="11">
-        <v>36396.0</v>
+        <v>36402.0</v>
       </c>
       <c r="DP22" t="n" s="11">
-        <v>36794.0</v>
+        <v>36791.0</v>
       </c>
       <c r="DQ22" t="n" s="11">
-        <v>36746.0</v>
+        <v>36747.0</v>
       </c>
       <c r="DR22" t="n" s="11">
-        <v>36753.0</v>
+        <v>36770.0</v>
       </c>
       <c r="DS22" t="n" s="11">
-        <v>36886.0</v>
+        <v>36923.0</v>
       </c>
       <c r="DT22" t="n" s="11">
-        <v>36911.0</v>
+        <v>36921.0</v>
       </c>
       <c r="DU22" t="n" s="11">
-        <v>36837.0</v>
-      </c>
-      <c r="DV22" t="s" s="11">
-        <v>43</v>
+        <v>36863.0</v>
+      </c>
+      <c r="DV22" t="n" s="11">
+        <v>36816.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s" s="14">
         <v>42</v>
@@ -9254,7 +9251,7 @@
         <v>41490.0</v>
       </c>
       <c r="Z23" t="n" s="11">
-        <v>41551.0</v>
+        <v>41550.0</v>
       </c>
       <c r="AA23" t="n" s="11">
         <v>41596.0</v>
@@ -9278,7 +9275,7 @@
         <v>42183.0</v>
       </c>
       <c r="AH23" t="n" s="11">
-        <v>42253.0</v>
+        <v>42252.0</v>
       </c>
       <c r="AI23" t="n" s="11">
         <v>42252.0</v>
@@ -9329,7 +9326,7 @@
         <v>42935.0</v>
       </c>
       <c r="AY23" t="n" s="11">
-        <v>42966.0</v>
+        <v>42964.0</v>
       </c>
       <c r="AZ23" t="n" s="11">
         <v>42874.0</v>
@@ -9374,7 +9371,7 @@
         <v>43665.0</v>
       </c>
       <c r="BN23" t="n" s="11">
-        <v>43673.0</v>
+        <v>43674.0</v>
       </c>
       <c r="BO23" t="n" s="11">
         <v>43661.0</v>
@@ -9389,7 +9386,7 @@
         <v>43750.0</v>
       </c>
       <c r="BS23" t="n" s="11">
-        <v>43835.0</v>
+        <v>43834.0</v>
       </c>
       <c r="BT23" t="n" s="11">
         <v>43797.0</v>
@@ -9476,7 +9473,7 @@
         <v>44825.0</v>
       </c>
       <c r="CV23" t="n" s="11">
-        <v>44949.0</v>
+        <v>44948.0</v>
       </c>
       <c r="CW23" t="n" s="11">
         <v>45033.0</v>
@@ -9485,7 +9482,7 @@
         <v>45138.0</v>
       </c>
       <c r="CY23" t="n" s="11">
-        <v>45206.0</v>
+        <v>45205.0</v>
       </c>
       <c r="CZ23" t="n" s="11">
         <v>45313.0</v>
@@ -9497,69 +9494,69 @@
         <v>45474.0</v>
       </c>
       <c r="DC23" t="n" s="11">
-        <v>45578.0</v>
+        <v>45577.0</v>
       </c>
       <c r="DD23" t="n" s="11">
         <v>45700.0</v>
       </c>
       <c r="DE23" t="n" s="11">
-        <v>45820.0</v>
+        <v>45822.0</v>
       </c>
       <c r="DF23" t="n" s="11">
-        <v>45907.0</v>
+        <v>45906.0</v>
       </c>
       <c r="DG23" t="n" s="11">
-        <v>46049.0</v>
+        <v>46048.0</v>
       </c>
       <c r="DH23" t="n" s="11">
-        <v>46155.0</v>
+        <v>46156.0</v>
       </c>
       <c r="DI23" t="n" s="11">
-        <v>46237.0</v>
+        <v>46241.0</v>
       </c>
       <c r="DJ23" t="n" s="11">
-        <v>46315.0</v>
+        <v>46313.0</v>
       </c>
       <c r="DK23" t="n" s="11">
-        <v>46437.0</v>
+        <v>46433.0</v>
       </c>
       <c r="DL23" t="n" s="11">
-        <v>46490.0</v>
+        <v>46482.0</v>
       </c>
       <c r="DM23" t="n" s="11">
-        <v>46477.0</v>
+        <v>46484.0</v>
       </c>
       <c r="DN23" t="n" s="11">
-        <v>46594.0</v>
+        <v>46601.0</v>
       </c>
       <c r="DO23" t="n" s="11">
-        <v>46780.0</v>
+        <v>46774.0</v>
       </c>
       <c r="DP23" t="n" s="11">
-        <v>46355.0</v>
+        <v>46358.0</v>
       </c>
       <c r="DQ23" t="n" s="11">
-        <v>46414.0</v>
+        <v>46413.0</v>
       </c>
       <c r="DR23" t="n" s="11">
-        <v>46406.0</v>
+        <v>46389.0</v>
       </c>
       <c r="DS23" t="n" s="11">
-        <v>46246.0</v>
+        <v>46240.0</v>
       </c>
       <c r="DT23" t="n" s="11">
-        <v>46232.0</v>
+        <v>46253.0</v>
       </c>
       <c r="DU23" t="n" s="11">
-        <v>46318.0</v>
-      </c>
-      <c r="DV23" t="s" s="11">
-        <v>43</v>
+        <v>46345.0</v>
+      </c>
+      <c r="DV23" t="n" s="11">
+        <v>46422.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s" s="14">
         <v>42</v>
@@ -9904,13 +9901,13 @@
         <v>1400.0</v>
       </c>
       <c r="DL24" t="n" s="11">
-        <v>1360.0</v>
+        <v>1350.0</v>
       </c>
       <c r="DM24" t="n" s="11">
         <v>1340.0</v>
       </c>
       <c r="DN24" t="n" s="11">
-        <v>1400.0</v>
+        <v>1410.0</v>
       </c>
       <c r="DO24" t="n" s="11">
         <v>1530.0</v>
@@ -9919,27 +9916,27 @@
         <v>1670.0</v>
       </c>
       <c r="DQ24" t="n" s="11">
-        <v>1780.0</v>
+        <v>1770.0</v>
       </c>
       <c r="DR24" t="n" s="11">
-        <v>1760.0</v>
+        <v>1750.0</v>
       </c>
       <c r="DS24" t="n" s="11">
         <v>1660.0</v>
       </c>
       <c r="DT24" t="n" s="11">
-        <v>1550.0</v>
+        <v>1560.0</v>
       </c>
       <c r="DU24" t="n" s="11">
-        <v>1460.0</v>
-      </c>
-      <c r="DV24" t="s" s="11">
-        <v>43</v>
+        <v>1450.0</v>
+      </c>
+      <c r="DV24" t="n" s="11">
+        <v>1380.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s" s="14">
         <v>42</v>
@@ -10014,7 +10011,7 @@
         <v>37980.0</v>
       </c>
       <c r="Z25" t="n" s="11">
-        <v>37931.0</v>
+        <v>37930.0</v>
       </c>
       <c r="AA25" t="n" s="11">
         <v>37876.0</v>
@@ -10038,7 +10035,7 @@
         <v>38533.0</v>
       </c>
       <c r="AH25" t="n" s="11">
-        <v>38693.0</v>
+        <v>38692.0</v>
       </c>
       <c r="AI25" t="n" s="11">
         <v>38772.0</v>
@@ -10089,7 +10086,7 @@
         <v>39355.0</v>
       </c>
       <c r="AY25" t="n" s="11">
-        <v>39226.0</v>
+        <v>39224.0</v>
       </c>
       <c r="AZ25" t="n" s="11">
         <v>39044.0</v>
@@ -10134,7 +10131,7 @@
         <v>39655.0</v>
       </c>
       <c r="BN25" t="n" s="11">
-        <v>39793.0</v>
+        <v>39794.0</v>
       </c>
       <c r="BO25" t="n" s="11">
         <v>39991.0</v>
@@ -10149,7 +10146,7 @@
         <v>40420.0</v>
       </c>
       <c r="BS25" t="n" s="11">
-        <v>40655.0</v>
+        <v>40654.0</v>
       </c>
       <c r="BT25" t="n" s="11">
         <v>40737.0</v>
@@ -10236,7 +10233,7 @@
         <v>42825.0</v>
       </c>
       <c r="CV25" t="n" s="11">
-        <v>42979.0</v>
+        <v>42978.0</v>
       </c>
       <c r="CW25" t="n" s="11">
         <v>43113.0</v>
@@ -10245,7 +10242,7 @@
         <v>43238.0</v>
       </c>
       <c r="CY25" t="n" s="11">
-        <v>43346.0</v>
+        <v>43345.0</v>
       </c>
       <c r="CZ25" t="n" s="11">
         <v>43493.0</v>
@@ -10257,69 +10254,69 @@
         <v>43784.0</v>
       </c>
       <c r="DC25" t="n" s="11">
-        <v>43908.0</v>
+        <v>43907.0</v>
       </c>
       <c r="DD25" t="n" s="11">
         <v>44060.0</v>
       </c>
       <c r="DE25" t="n" s="11">
-        <v>44210.0</v>
+        <v>44212.0</v>
       </c>
       <c r="DF25" t="n" s="11">
-        <v>44347.0</v>
+        <v>44346.0</v>
       </c>
       <c r="DG25" t="n" s="11">
-        <v>44539.0</v>
+        <v>44538.0</v>
       </c>
       <c r="DH25" t="n" s="11">
-        <v>44675.0</v>
+        <v>44676.0</v>
       </c>
       <c r="DI25" t="n" s="11">
-        <v>44777.0</v>
+        <v>44781.0</v>
       </c>
       <c r="DJ25" t="n" s="11">
-        <v>44885.0</v>
+        <v>44883.0</v>
       </c>
       <c r="DK25" t="n" s="11">
-        <v>45037.0</v>
+        <v>45033.0</v>
       </c>
       <c r="DL25" t="n" s="11">
-        <v>45130.0</v>
+        <v>45132.0</v>
       </c>
       <c r="DM25" t="n" s="11">
-        <v>45137.0</v>
+        <v>45144.0</v>
       </c>
       <c r="DN25" t="n" s="11">
-        <v>45194.0</v>
+        <v>45191.0</v>
       </c>
       <c r="DO25" t="n" s="11">
-        <v>45250.0</v>
+        <v>45244.0</v>
       </c>
       <c r="DP25" t="n" s="11">
-        <v>44685.0</v>
+        <v>44688.0</v>
       </c>
       <c r="DQ25" t="n" s="11">
-        <v>44634.0</v>
+        <v>44643.0</v>
       </c>
       <c r="DR25" t="n" s="11">
-        <v>44646.0</v>
+        <v>44639.0</v>
       </c>
       <c r="DS25" t="n" s="11">
-        <v>44586.0</v>
+        <v>44580.0</v>
       </c>
       <c r="DT25" t="n" s="11">
-        <v>44682.0</v>
+        <v>44693.0</v>
       </c>
       <c r="DU25" t="n" s="11">
-        <v>44858.0</v>
-      </c>
-      <c r="DV25" t="s" s="11">
-        <v>43</v>
+        <v>44895.0</v>
+      </c>
+      <c r="DV25" t="n" s="11">
+        <v>45042.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s" s="14">
         <v>42</v>
@@ -10370,7 +10367,7 @@
         <v>3757.0</v>
       </c>
       <c r="R26" t="n" s="11">
-        <v>3772.0</v>
+        <v>3773.0</v>
       </c>
       <c r="S26" t="n" s="11">
         <v>3773.0</v>
@@ -10388,10 +10385,10 @@
         <v>3833.0</v>
       </c>
       <c r="X26" t="n" s="11">
-        <v>3849.0</v>
+        <v>3848.0</v>
       </c>
       <c r="Y26" t="n" s="11">
-        <v>3863.0</v>
+        <v>3864.0</v>
       </c>
       <c r="Z26" t="n" s="11">
         <v>3878.0</v>
@@ -10400,64 +10397,64 @@
         <v>3898.0</v>
       </c>
       <c r="AB26" t="n" s="11">
-        <v>3911.0</v>
+        <v>3910.0</v>
       </c>
       <c r="AC26" t="n" s="11">
-        <v>3920.0</v>
+        <v>3921.0</v>
       </c>
       <c r="AD26" t="n" s="11">
         <v>3932.0</v>
       </c>
       <c r="AE26" t="n" s="11">
-        <v>3950.0</v>
+        <v>3951.0</v>
       </c>
       <c r="AF26" t="n" s="11">
-        <v>3962.0</v>
+        <v>3960.0</v>
       </c>
       <c r="AG26" t="n" s="11">
-        <v>3967.0</v>
+        <v>3968.0</v>
       </c>
       <c r="AH26" t="n" s="11">
         <v>3974.0</v>
       </c>
       <c r="AI26" t="n" s="11">
-        <v>3983.0</v>
+        <v>3984.0</v>
       </c>
       <c r="AJ26" t="n" s="11">
-        <v>3991.0</v>
+        <v>3989.0</v>
       </c>
       <c r="AK26" t="n" s="11">
-        <v>3993.0</v>
+        <v>3994.0</v>
       </c>
       <c r="AL26" t="n" s="11">
         <v>4000.0</v>
       </c>
       <c r="AM26" t="n" s="11">
-        <v>4004.0</v>
+        <v>4005.0</v>
       </c>
       <c r="AN26" t="n" s="11">
-        <v>4012.0</v>
+        <v>4010.0</v>
       </c>
       <c r="AO26" t="n" s="11">
-        <v>4014.0</v>
+        <v>4015.0</v>
       </c>
       <c r="AP26" t="n" s="11">
-        <v>4020.0</v>
+        <v>4021.0</v>
       </c>
       <c r="AQ26" t="n" s="11">
         <v>4017.0</v>
       </c>
       <c r="AR26" t="n" s="11">
-        <v>4024.0</v>
+        <v>4023.0</v>
       </c>
       <c r="AS26" t="n" s="11">
         <v>4031.0</v>
       </c>
       <c r="AT26" t="n" s="11">
-        <v>4039.0</v>
+        <v>4040.0</v>
       </c>
       <c r="AU26" t="n" s="11">
-        <v>4041.0</v>
+        <v>4042.0</v>
       </c>
       <c r="AV26" t="n" s="11">
         <v>4054.0</v>
@@ -10469,46 +10466,46 @@
         <v>4085.0</v>
       </c>
       <c r="AY26" t="n" s="11">
-        <v>4100.0</v>
+        <v>4099.0</v>
       </c>
       <c r="AZ26" t="n" s="11">
-        <v>4119.0</v>
+        <v>4120.0</v>
       </c>
       <c r="BA26" t="n" s="11">
         <v>4145.0</v>
       </c>
       <c r="BB26" t="n" s="11">
-        <v>4173.0</v>
+        <v>4172.0</v>
       </c>
       <c r="BC26" t="n" s="11">
         <v>4214.0</v>
       </c>
       <c r="BD26" t="n" s="11">
-        <v>4244.0</v>
+        <v>4245.0</v>
       </c>
       <c r="BE26" t="n" s="11">
-        <v>4277.0</v>
+        <v>4276.0</v>
       </c>
       <c r="BF26" t="n" s="11">
-        <v>4309.0</v>
+        <v>4308.0</v>
       </c>
       <c r="BG26" t="n" s="11">
         <v>4348.0</v>
       </c>
       <c r="BH26" t="n" s="11">
-        <v>4372.0</v>
+        <v>4374.0</v>
       </c>
       <c r="BI26" t="n" s="11">
-        <v>4396.0</v>
+        <v>4395.0</v>
       </c>
       <c r="BJ26" t="n" s="11">
-        <v>4410.0</v>
+        <v>4409.0</v>
       </c>
       <c r="BK26" t="n" s="11">
         <v>4422.0</v>
       </c>
       <c r="BL26" t="n" s="11">
-        <v>4429.0</v>
+        <v>4432.0</v>
       </c>
       <c r="BM26" t="n" s="11">
         <v>4441.0</v>
@@ -10520,37 +10517,37 @@
         <v>4461.0</v>
       </c>
       <c r="BP26" t="n" s="11">
-        <v>4466.0</v>
+        <v>4468.0</v>
       </c>
       <c r="BQ26" t="n" s="11">
-        <v>4473.0</v>
+        <v>4472.0</v>
       </c>
       <c r="BR26" t="n" s="11">
-        <v>4475.0</v>
+        <v>4474.0</v>
       </c>
       <c r="BS26" t="n" s="11">
+        <v>4477.0</v>
+      </c>
+      <c r="BT26" t="n" s="11">
         <v>4478.0</v>
       </c>
-      <c r="BT26" t="n" s="11">
-        <v>4476.0</v>
-      </c>
       <c r="BU26" t="n" s="11">
-        <v>4480.0</v>
+        <v>4479.0</v>
       </c>
       <c r="BV26" t="n" s="11">
-        <v>4483.0</v>
+        <v>4482.0</v>
       </c>
       <c r="BW26" t="n" s="11">
         <v>4483.0</v>
       </c>
       <c r="BX26" t="n" s="11">
-        <v>4489.0</v>
+        <v>4490.0</v>
       </c>
       <c r="BY26" t="n" s="11">
         <v>4494.0</v>
       </c>
       <c r="BZ26" t="n" s="11">
-        <v>4498.0</v>
+        <v>4497.0</v>
       </c>
       <c r="CA26" t="n" s="11">
         <v>4509.0</v>
@@ -10592,7 +10589,7 @@
         <v>4506.0</v>
       </c>
       <c r="CN26" t="n" s="11">
-        <v>4498.0</v>
+        <v>4499.0</v>
       </c>
       <c r="CO26" t="n" s="11">
         <v>4492.0</v>
@@ -10616,7 +10613,7 @@
         <v>4427.0</v>
       </c>
       <c r="CV26" t="n" s="11">
-        <v>4413.0</v>
+        <v>4412.0</v>
       </c>
       <c r="CW26" t="n" s="11">
         <v>4398.0</v>
@@ -10625,13 +10622,13 @@
         <v>4383.0</v>
       </c>
       <c r="CY26" t="n" s="11">
-        <v>4369.0</v>
+        <v>4368.0</v>
       </c>
       <c r="CZ26" t="n" s="11">
         <v>4351.0</v>
       </c>
       <c r="DA26" t="n" s="11">
-        <v>4333.0</v>
+        <v>4332.0</v>
       </c>
       <c r="DB26" t="n" s="11">
         <v>4314.0</v>
@@ -10652,54 +10649,54 @@
         <v>4243.0</v>
       </c>
       <c r="DH26" t="n" s="11">
-        <v>4231.0</v>
+        <v>4232.0</v>
       </c>
       <c r="DI26" t="n" s="11">
-        <v>4216.0</v>
+        <v>4217.0</v>
       </c>
       <c r="DJ26" t="n" s="11">
         <v>4203.0</v>
       </c>
       <c r="DK26" t="n" s="11">
-        <v>4187.0</v>
+        <v>4186.0</v>
       </c>
       <c r="DL26" t="n" s="11">
         <v>4166.0</v>
       </c>
       <c r="DM26" t="n" s="11">
-        <v>4138.0</v>
+        <v>4139.0</v>
       </c>
       <c r="DN26" t="n" s="11">
-        <v>4112.0</v>
+        <v>4113.0</v>
       </c>
       <c r="DO26" t="n" s="11">
-        <v>4088.0</v>
+        <v>4087.0</v>
       </c>
       <c r="DP26" t="n" s="11">
-        <v>4054.0</v>
+        <v>4055.0</v>
       </c>
       <c r="DQ26" t="n" s="11">
-        <v>4024.0</v>
+        <v>4025.0</v>
       </c>
       <c r="DR26" t="n" s="11">
         <v>3984.0</v>
       </c>
       <c r="DS26" t="n" s="11">
-        <v>3950.0</v>
+        <v>3948.0</v>
       </c>
       <c r="DT26" t="n" s="11">
-        <v>3930.0</v>
+        <v>3929.0</v>
       </c>
       <c r="DU26" t="n" s="11">
         <v>3922.0</v>
       </c>
-      <c r="DV26" t="s" s="11">
-        <v>43</v>
+      <c r="DV26" t="n" s="11">
+        <v>3916.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s" s="14">
         <v>42</v>
@@ -10750,7 +10747,7 @@
         <v>34108.0</v>
       </c>
       <c r="R27" t="n" s="11">
-        <v>34166.0</v>
+        <v>34165.0</v>
       </c>
       <c r="S27" t="n" s="11">
         <v>34157.0</v>
@@ -10768,76 +10765,76 @@
         <v>34138.0</v>
       </c>
       <c r="X27" t="n" s="11">
-        <v>34175.0</v>
+        <v>34176.0</v>
       </c>
       <c r="Y27" t="n" s="11">
-        <v>34117.0</v>
+        <v>34116.0</v>
       </c>
       <c r="Z27" t="n" s="11">
-        <v>34053.0</v>
+        <v>34052.0</v>
       </c>
       <c r="AA27" t="n" s="11">
         <v>33978.0</v>
       </c>
       <c r="AB27" t="n" s="11">
-        <v>34027.0</v>
+        <v>34028.0</v>
       </c>
       <c r="AC27" t="n" s="11">
-        <v>34078.0</v>
+        <v>34077.0</v>
       </c>
       <c r="AD27" t="n" s="11">
         <v>34067.0</v>
       </c>
       <c r="AE27" t="n" s="11">
-        <v>34137.0</v>
+        <v>34136.0</v>
       </c>
       <c r="AF27" t="n" s="11">
-        <v>34334.0</v>
+        <v>34336.0</v>
       </c>
       <c r="AG27" t="n" s="11">
-        <v>34566.0</v>
+        <v>34565.0</v>
       </c>
       <c r="AH27" t="n" s="11">
-        <v>34719.0</v>
+        <v>34718.0</v>
       </c>
       <c r="AI27" t="n" s="11">
-        <v>34789.0</v>
+        <v>34788.0</v>
       </c>
       <c r="AJ27" t="n" s="11">
-        <v>34813.0</v>
+        <v>34815.0</v>
       </c>
       <c r="AK27" t="n" s="11">
-        <v>35144.0</v>
+        <v>35143.0</v>
       </c>
       <c r="AL27" t="n" s="11">
         <v>35349.0</v>
       </c>
       <c r="AM27" t="n" s="11">
-        <v>35710.0</v>
+        <v>35709.0</v>
       </c>
       <c r="AN27" t="n" s="11">
-        <v>35841.0</v>
+        <v>35843.0</v>
       </c>
       <c r="AO27" t="n" s="11">
-        <v>35885.0</v>
+        <v>35884.0</v>
       </c>
       <c r="AP27" t="n" s="11">
-        <v>35897.0</v>
+        <v>35896.0</v>
       </c>
       <c r="AQ27" t="n" s="11">
         <v>35741.0</v>
       </c>
       <c r="AR27" t="n" s="11">
-        <v>35724.0</v>
+        <v>35725.0</v>
       </c>
       <c r="AS27" t="n" s="11">
         <v>35645.0</v>
       </c>
       <c r="AT27" t="n" s="11">
-        <v>35650.0</v>
+        <v>35649.0</v>
       </c>
       <c r="AU27" t="n" s="11">
-        <v>35661.0</v>
+        <v>35660.0</v>
       </c>
       <c r="AV27" t="n" s="11">
         <v>35548.0</v>
@@ -10849,88 +10846,88 @@
         <v>35270.0</v>
       </c>
       <c r="AY27" t="n" s="11">
-        <v>35126.0</v>
+        <v>35125.0</v>
       </c>
       <c r="AZ27" t="n" s="11">
-        <v>34925.0</v>
+        <v>34924.0</v>
       </c>
       <c r="BA27" t="n" s="11">
         <v>34938.0</v>
       </c>
       <c r="BB27" t="n" s="11">
-        <v>34917.0</v>
+        <v>34918.0</v>
       </c>
       <c r="BC27" t="n" s="11">
         <v>34987.0</v>
       </c>
       <c r="BD27" t="n" s="11">
-        <v>35033.0</v>
+        <v>35032.0</v>
       </c>
       <c r="BE27" t="n" s="11">
-        <v>34980.0</v>
+        <v>34981.0</v>
       </c>
       <c r="BF27" t="n" s="11">
-        <v>34927.0</v>
+        <v>34928.0</v>
       </c>
       <c r="BG27" t="n" s="11">
         <v>34794.0</v>
       </c>
       <c r="BH27" t="n" s="11">
-        <v>34749.0</v>
+        <v>34747.0</v>
       </c>
       <c r="BI27" t="n" s="11">
-        <v>34817.0</v>
+        <v>34818.0</v>
       </c>
       <c r="BJ27" t="n" s="11">
-        <v>34936.0</v>
+        <v>34937.0</v>
       </c>
       <c r="BK27" t="n" s="11">
         <v>34773.0</v>
       </c>
       <c r="BL27" t="n" s="11">
-        <v>35001.0</v>
+        <v>34998.0</v>
       </c>
       <c r="BM27" t="n" s="11">
         <v>35214.0</v>
       </c>
       <c r="BN27" t="n" s="11">
-        <v>35342.0</v>
+        <v>35343.0</v>
       </c>
       <c r="BO27" t="n" s="11">
         <v>35530.0</v>
       </c>
       <c r="BP27" t="n" s="11">
-        <v>35688.0</v>
+        <v>35686.0</v>
       </c>
       <c r="BQ27" t="n" s="11">
-        <v>35790.0</v>
+        <v>35791.0</v>
       </c>
       <c r="BR27" t="n" s="11">
-        <v>35945.0</v>
+        <v>35946.0</v>
       </c>
       <c r="BS27" t="n" s="11">
         <v>36177.0</v>
       </c>
       <c r="BT27" t="n" s="11">
-        <v>36261.0</v>
+        <v>36259.0</v>
       </c>
       <c r="BU27" t="n" s="11">
-        <v>36371.0</v>
+        <v>36372.0</v>
       </c>
       <c r="BV27" t="n" s="11">
-        <v>36462.0</v>
+        <v>36463.0</v>
       </c>
       <c r="BW27" t="n" s="11">
         <v>36481.0</v>
       </c>
       <c r="BX27" t="n" s="11">
-        <v>36370.0</v>
+        <v>36369.0</v>
       </c>
       <c r="BY27" t="n" s="11">
         <v>36307.0</v>
       </c>
       <c r="BZ27" t="n" s="11">
-        <v>36318.0</v>
+        <v>36319.0</v>
       </c>
       <c r="CA27" t="n" s="11">
         <v>36306.0</v>
@@ -10972,7 +10969,7 @@
         <v>37677.0</v>
       </c>
       <c r="CN27" t="n" s="11">
-        <v>37728.0</v>
+        <v>37727.0</v>
       </c>
       <c r="CO27" t="n" s="11">
         <v>37833.0</v>
@@ -11011,75 +11008,75 @@
         <v>39142.0</v>
       </c>
       <c r="DA27" t="n" s="11">
-        <v>39288.0</v>
+        <v>39289.0</v>
       </c>
       <c r="DB27" t="n" s="11">
         <v>39470.0</v>
       </c>
       <c r="DC27" t="n" s="11">
-        <v>39613.0</v>
+        <v>39612.0</v>
       </c>
       <c r="DD27" t="n" s="11">
         <v>39782.0</v>
       </c>
       <c r="DE27" t="n" s="11">
-        <v>39946.0</v>
+        <v>39948.0</v>
       </c>
       <c r="DF27" t="n" s="11">
-        <v>40093.0</v>
+        <v>40092.0</v>
       </c>
       <c r="DG27" t="n" s="11">
-        <v>40296.0</v>
+        <v>40295.0</v>
       </c>
       <c r="DH27" t="n" s="11">
         <v>40444.0</v>
       </c>
       <c r="DI27" t="n" s="11">
-        <v>40561.0</v>
+        <v>40564.0</v>
       </c>
       <c r="DJ27" t="n" s="11">
-        <v>40682.0</v>
+        <v>40680.0</v>
       </c>
       <c r="DK27" t="n" s="11">
-        <v>40850.0</v>
+        <v>40847.0</v>
       </c>
       <c r="DL27" t="n" s="11">
-        <v>40964.0</v>
+        <v>40966.0</v>
       </c>
       <c r="DM27" t="n" s="11">
-        <v>40999.0</v>
+        <v>41005.0</v>
       </c>
       <c r="DN27" t="n" s="11">
-        <v>41082.0</v>
+        <v>41078.0</v>
       </c>
       <c r="DO27" t="n" s="11">
-        <v>41162.0</v>
+        <v>41157.0</v>
       </c>
       <c r="DP27" t="n" s="11">
-        <v>40631.0</v>
+        <v>40633.0</v>
       </c>
       <c r="DQ27" t="n" s="11">
-        <v>40610.0</v>
+        <v>40618.0</v>
       </c>
       <c r="DR27" t="n" s="11">
-        <v>40662.0</v>
+        <v>40655.0</v>
       </c>
       <c r="DS27" t="n" s="11">
-        <v>40636.0</v>
+        <v>40632.0</v>
       </c>
       <c r="DT27" t="n" s="11">
-        <v>40752.0</v>
+        <v>40764.0</v>
       </c>
       <c r="DU27" t="n" s="11">
-        <v>40936.0</v>
-      </c>
-      <c r="DV27" t="s" s="11">
-        <v>43</v>
+        <v>40973.0</v>
+      </c>
+      <c r="DV27" t="n" s="11">
+        <v>41126.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s" s="14">
         <v>42</v>
@@ -11229,7 +11226,7 @@
         <v>113.0</v>
       </c>
       <c r="AY28" t="n" s="11">
-        <v>126.0</v>
+        <v>127.0</v>
       </c>
       <c r="AZ28" t="n" s="11">
         <v>138.0</v>
@@ -11409,7 +11406,7 @@
         <v>129.0</v>
       </c>
       <c r="DG28" t="n" s="11">
-        <v>130.0</v>
+        <v>129.0</v>
       </c>
       <c r="DH28" t="n" s="11">
         <v>140.0</v>
@@ -11442,24 +11439,24 @@
         <v>67.0</v>
       </c>
       <c r="DR28" t="n" s="11">
-        <v>96.0</v>
+        <v>97.0</v>
       </c>
       <c r="DS28" t="n" s="11">
-        <v>119.0</v>
+        <v>118.0</v>
       </c>
       <c r="DT28" t="n" s="11">
-        <v>116.0</v>
+        <v>117.0</v>
       </c>
       <c r="DU28" t="n" s="11">
-        <v>109.0</v>
-      </c>
-      <c r="DV28" t="s" s="11">
-        <v>43</v>
+        <v>110.0</v>
+      </c>
+      <c r="DV28" t="n" s="11">
+        <v>120.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s" s="14">
         <v>42</v>
@@ -11510,7 +11507,7 @@
         <v>34123.0</v>
       </c>
       <c r="R29" t="n" s="11">
-        <v>34195.0</v>
+        <v>34194.0</v>
       </c>
       <c r="S29" t="n" s="11">
         <v>34225.0</v>
@@ -11528,76 +11525,76 @@
         <v>34216.0</v>
       </c>
       <c r="X29" t="n" s="11">
-        <v>34261.0</v>
+        <v>34262.0</v>
       </c>
       <c r="Y29" t="n" s="11">
-        <v>34192.0</v>
+        <v>34191.0</v>
       </c>
       <c r="Z29" t="n" s="11">
-        <v>34127.0</v>
+        <v>34126.0</v>
       </c>
       <c r="AA29" t="n" s="11">
         <v>34060.0</v>
       </c>
       <c r="AB29" t="n" s="11">
-        <v>34112.0</v>
+        <v>34113.0</v>
       </c>
       <c r="AC29" t="n" s="11">
-        <v>34165.0</v>
+        <v>34164.0</v>
       </c>
       <c r="AD29" t="n" s="11">
         <v>34154.0</v>
       </c>
       <c r="AE29" t="n" s="11">
-        <v>34225.0</v>
+        <v>34224.0</v>
       </c>
       <c r="AF29" t="n" s="11">
-        <v>34425.0</v>
+        <v>34427.0</v>
       </c>
       <c r="AG29" t="n" s="11">
-        <v>34660.0</v>
+        <v>34659.0</v>
       </c>
       <c r="AH29" t="n" s="11">
-        <v>34811.0</v>
+        <v>34810.0</v>
       </c>
       <c r="AI29" t="n" s="11">
-        <v>34888.0</v>
+        <v>34887.0</v>
       </c>
       <c r="AJ29" t="n" s="11">
-        <v>34899.0</v>
+        <v>34901.0</v>
       </c>
       <c r="AK29" t="n" s="11">
-        <v>35246.0</v>
+        <v>35245.0</v>
       </c>
       <c r="AL29" t="n" s="11">
         <v>35476.0</v>
       </c>
       <c r="AM29" t="n" s="11">
-        <v>35843.0</v>
+        <v>35842.0</v>
       </c>
       <c r="AN29" t="n" s="11">
-        <v>35964.0</v>
+        <v>35966.0</v>
       </c>
       <c r="AO29" t="n" s="11">
-        <v>36015.0</v>
+        <v>36014.0</v>
       </c>
       <c r="AP29" t="n" s="11">
-        <v>36012.0</v>
+        <v>36011.0</v>
       </c>
       <c r="AQ29" t="n" s="11">
         <v>35904.0</v>
       </c>
       <c r="AR29" t="n" s="11">
-        <v>35874.0</v>
+        <v>35875.0</v>
       </c>
       <c r="AS29" t="n" s="11">
         <v>35772.0</v>
       </c>
       <c r="AT29" t="n" s="11">
-        <v>35776.0</v>
+        <v>35775.0</v>
       </c>
       <c r="AU29" t="n" s="11">
-        <v>35789.0</v>
+        <v>35788.0</v>
       </c>
       <c r="AV29" t="n" s="11">
         <v>35701.0</v>
@@ -11612,85 +11609,85 @@
         <v>35252.0</v>
       </c>
       <c r="AZ29" t="n" s="11">
-        <v>35063.0</v>
+        <v>35062.0</v>
       </c>
       <c r="BA29" t="n" s="11">
         <v>35061.0</v>
       </c>
       <c r="BB29" t="n" s="11">
-        <v>35032.0</v>
+        <v>35033.0</v>
       </c>
       <c r="BC29" t="n" s="11">
         <v>35107.0</v>
       </c>
       <c r="BD29" t="n" s="11">
-        <v>35163.0</v>
+        <v>35162.0</v>
       </c>
       <c r="BE29" t="n" s="11">
-        <v>35096.0</v>
+        <v>35097.0</v>
       </c>
       <c r="BF29" t="n" s="11">
-        <v>35036.0</v>
+        <v>35037.0</v>
       </c>
       <c r="BG29" t="n" s="11">
         <v>34903.0</v>
       </c>
       <c r="BH29" t="n" s="11">
-        <v>34861.0</v>
+        <v>34859.0</v>
       </c>
       <c r="BI29" t="n" s="11">
-        <v>34928.0</v>
+        <v>34929.0</v>
       </c>
       <c r="BJ29" t="n" s="11">
-        <v>35027.0</v>
+        <v>35028.0</v>
       </c>
       <c r="BK29" t="n" s="11">
         <v>34855.0</v>
       </c>
       <c r="BL29" t="n" s="11">
-        <v>35086.0</v>
+        <v>35083.0</v>
       </c>
       <c r="BM29" t="n" s="11">
         <v>35279.0</v>
       </c>
       <c r="BN29" t="n" s="11">
-        <v>35414.0</v>
+        <v>35415.0</v>
       </c>
       <c r="BO29" t="n" s="11">
         <v>35598.0</v>
       </c>
       <c r="BP29" t="n" s="11">
-        <v>35745.0</v>
+        <v>35743.0</v>
       </c>
       <c r="BQ29" t="n" s="11">
-        <v>35861.0</v>
+        <v>35862.0</v>
       </c>
       <c r="BR29" t="n" s="11">
-        <v>36012.0</v>
+        <v>36013.0</v>
       </c>
       <c r="BS29" t="n" s="11">
         <v>36228.0</v>
       </c>
       <c r="BT29" t="n" s="11">
-        <v>36300.0</v>
+        <v>36298.0</v>
       </c>
       <c r="BU29" t="n" s="11">
-        <v>36409.0</v>
+        <v>36410.0</v>
       </c>
       <c r="BV29" t="n" s="11">
-        <v>36505.0</v>
+        <v>36506.0</v>
       </c>
       <c r="BW29" t="n" s="11">
         <v>36533.0</v>
       </c>
       <c r="BX29" t="n" s="11">
-        <v>36418.0</v>
+        <v>36417.0</v>
       </c>
       <c r="BY29" t="n" s="11">
         <v>36351.0</v>
       </c>
       <c r="BZ29" t="n" s="11">
-        <v>36354.0</v>
+        <v>36355.0</v>
       </c>
       <c r="CA29" t="n" s="11">
         <v>36350.0</v>
@@ -11732,7 +11729,7 @@
         <v>37741.0</v>
       </c>
       <c r="CN29" t="n" s="11">
-        <v>37789.0</v>
+        <v>37788.0</v>
       </c>
       <c r="CO29" t="n" s="11">
         <v>37899.0</v>
@@ -11771,75 +11768,75 @@
         <v>39241.0</v>
       </c>
       <c r="DA29" t="n" s="11">
-        <v>39394.0</v>
+        <v>39395.0</v>
       </c>
       <c r="DB29" t="n" s="11">
         <v>39578.0</v>
       </c>
       <c r="DC29" t="n" s="11">
-        <v>39722.0</v>
+        <v>39721.0</v>
       </c>
       <c r="DD29" t="n" s="11">
         <v>39900.0</v>
       </c>
       <c r="DE29" t="n" s="11">
-        <v>40071.0</v>
+        <v>40073.0</v>
       </c>
       <c r="DF29" t="n" s="11">
-        <v>40222.0</v>
+        <v>40221.0</v>
       </c>
       <c r="DG29" t="n" s="11">
-        <v>40426.0</v>
+        <v>40424.0</v>
       </c>
       <c r="DH29" t="n" s="11">
         <v>40584.0</v>
       </c>
       <c r="DI29" t="n" s="11">
-        <v>40706.0</v>
+        <v>40709.0</v>
       </c>
       <c r="DJ29" t="n" s="11">
-        <v>40827.0</v>
+        <v>40825.0</v>
       </c>
       <c r="DK29" t="n" s="11">
-        <v>40988.0</v>
+        <v>40985.0</v>
       </c>
       <c r="DL29" t="n" s="11">
-        <v>41110.0</v>
+        <v>41112.0</v>
       </c>
       <c r="DM29" t="n" s="11">
-        <v>41145.0</v>
+        <v>41151.0</v>
       </c>
       <c r="DN29" t="n" s="11">
-        <v>41225.0</v>
+        <v>41221.0</v>
       </c>
       <c r="DO29" t="n" s="11">
-        <v>41297.0</v>
+        <v>41292.0</v>
       </c>
       <c r="DP29" t="n" s="11">
-        <v>40714.0</v>
+        <v>40716.0</v>
       </c>
       <c r="DQ29" t="n" s="11">
-        <v>40677.0</v>
+        <v>40685.0</v>
       </c>
       <c r="DR29" t="n" s="11">
-        <v>40758.0</v>
+        <v>40752.0</v>
       </c>
       <c r="DS29" t="n" s="11">
-        <v>40755.0</v>
+        <v>40750.0</v>
       </c>
       <c r="DT29" t="n" s="11">
-        <v>40868.0</v>
+        <v>40881.0</v>
       </c>
       <c r="DU29" t="n" s="11">
-        <v>41045.0</v>
-      </c>
-      <c r="DV29" t="s" s="11">
-        <v>43</v>
+        <v>41083.0</v>
+      </c>
+      <c r="DV29" t="n" s="11">
+        <v>41246.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s" s="14">
         <v>42</v>
@@ -11890,7 +11887,7 @@
         <v>3757.0</v>
       </c>
       <c r="R30" t="n" s="11">
-        <v>3772.0</v>
+        <v>3773.0</v>
       </c>
       <c r="S30" t="n" s="11">
         <v>3773.0</v>
@@ -11908,10 +11905,10 @@
         <v>3833.0</v>
       </c>
       <c r="X30" t="n" s="11">
-        <v>3849.0</v>
+        <v>3848.0</v>
       </c>
       <c r="Y30" t="n" s="11">
-        <v>3863.0</v>
+        <v>3864.0</v>
       </c>
       <c r="Z30" t="n" s="11">
         <v>3878.0</v>
@@ -11920,64 +11917,64 @@
         <v>3898.0</v>
       </c>
       <c r="AB30" t="n" s="11">
-        <v>3911.0</v>
+        <v>3910.0</v>
       </c>
       <c r="AC30" t="n" s="11">
-        <v>3920.0</v>
+        <v>3921.0</v>
       </c>
       <c r="AD30" t="n" s="11">
         <v>3932.0</v>
       </c>
       <c r="AE30" t="n" s="11">
-        <v>3950.0</v>
+        <v>3951.0</v>
       </c>
       <c r="AF30" t="n" s="11">
-        <v>3962.0</v>
+        <v>3960.0</v>
       </c>
       <c r="AG30" t="n" s="11">
-        <v>3967.0</v>
+        <v>3968.0</v>
       </c>
       <c r="AH30" t="n" s="11">
         <v>3974.0</v>
       </c>
       <c r="AI30" t="n" s="11">
-        <v>3983.0</v>
+        <v>3984.0</v>
       </c>
       <c r="AJ30" t="n" s="11">
-        <v>3991.0</v>
+        <v>3989.0</v>
       </c>
       <c r="AK30" t="n" s="11">
-        <v>3993.0</v>
+        <v>3994.0</v>
       </c>
       <c r="AL30" t="n" s="11">
         <v>4000.0</v>
       </c>
       <c r="AM30" t="n" s="11">
-        <v>4004.0</v>
+        <v>4005.0</v>
       </c>
       <c r="AN30" t="n" s="11">
-        <v>4012.0</v>
+        <v>4010.0</v>
       </c>
       <c r="AO30" t="n" s="11">
-        <v>4014.0</v>
+        <v>4015.0</v>
       </c>
       <c r="AP30" t="n" s="11">
-        <v>4020.0</v>
+        <v>4021.0</v>
       </c>
       <c r="AQ30" t="n" s="11">
         <v>4017.0</v>
       </c>
       <c r="AR30" t="n" s="11">
-        <v>4024.0</v>
+        <v>4023.0</v>
       </c>
       <c r="AS30" t="n" s="11">
         <v>4031.0</v>
       </c>
       <c r="AT30" t="n" s="11">
-        <v>4039.0</v>
+        <v>4040.0</v>
       </c>
       <c r="AU30" t="n" s="11">
-        <v>4041.0</v>
+        <v>4042.0</v>
       </c>
       <c r="AV30" t="n" s="11">
         <v>4054.0</v>
@@ -11989,46 +11986,46 @@
         <v>4085.0</v>
       </c>
       <c r="AY30" t="n" s="11">
-        <v>4100.0</v>
+        <v>4099.0</v>
       </c>
       <c r="AZ30" t="n" s="11">
-        <v>4119.0</v>
+        <v>4120.0</v>
       </c>
       <c r="BA30" t="n" s="11">
         <v>4145.0</v>
       </c>
       <c r="BB30" t="n" s="11">
-        <v>4173.0</v>
+        <v>4172.0</v>
       </c>
       <c r="BC30" t="n" s="11">
         <v>4214.0</v>
       </c>
       <c r="BD30" t="n" s="11">
-        <v>4244.0</v>
+        <v>4245.0</v>
       </c>
       <c r="BE30" t="n" s="11">
-        <v>4277.0</v>
+        <v>4276.0</v>
       </c>
       <c r="BF30" t="n" s="11">
-        <v>4309.0</v>
+        <v>4308.0</v>
       </c>
       <c r="BG30" t="n" s="11">
         <v>4348.0</v>
       </c>
       <c r="BH30" t="n" s="11">
-        <v>4372.0</v>
+        <v>4374.0</v>
       </c>
       <c r="BI30" t="n" s="11">
-        <v>4396.0</v>
+        <v>4395.0</v>
       </c>
       <c r="BJ30" t="n" s="11">
-        <v>4410.0</v>
+        <v>4409.0</v>
       </c>
       <c r="BK30" t="n" s="11">
         <v>4422.0</v>
       </c>
       <c r="BL30" t="n" s="11">
-        <v>4429.0</v>
+        <v>4432.0</v>
       </c>
       <c r="BM30" t="n" s="11">
         <v>4441.0</v>
@@ -12040,37 +12037,37 @@
         <v>4461.0</v>
       </c>
       <c r="BP30" t="n" s="11">
-        <v>4466.0</v>
+        <v>4468.0</v>
       </c>
       <c r="BQ30" t="n" s="11">
-        <v>4473.0</v>
+        <v>4472.0</v>
       </c>
       <c r="BR30" t="n" s="11">
-        <v>4475.0</v>
+        <v>4474.0</v>
       </c>
       <c r="BS30" t="n" s="11">
+        <v>4477.0</v>
+      </c>
+      <c r="BT30" t="n" s="11">
         <v>4478.0</v>
       </c>
-      <c r="BT30" t="n" s="11">
-        <v>4476.0</v>
-      </c>
       <c r="BU30" t="n" s="11">
-        <v>4480.0</v>
+        <v>4479.0</v>
       </c>
       <c r="BV30" t="n" s="11">
-        <v>4483.0</v>
+        <v>4482.0</v>
       </c>
       <c r="BW30" t="n" s="11">
         <v>4483.0</v>
       </c>
       <c r="BX30" t="n" s="11">
-        <v>4489.0</v>
+        <v>4490.0</v>
       </c>
       <c r="BY30" t="n" s="11">
         <v>4494.0</v>
       </c>
       <c r="BZ30" t="n" s="11">
-        <v>4498.0</v>
+        <v>4497.0</v>
       </c>
       <c r="CA30" t="n" s="11">
         <v>4509.0</v>
@@ -12112,7 +12109,7 @@
         <v>4506.0</v>
       </c>
       <c r="CN30" t="n" s="11">
-        <v>4498.0</v>
+        <v>4499.0</v>
       </c>
       <c r="CO30" t="n" s="11">
         <v>4492.0</v>
@@ -12136,7 +12133,7 @@
         <v>4427.0</v>
       </c>
       <c r="CV30" t="n" s="11">
-        <v>4413.0</v>
+        <v>4412.0</v>
       </c>
       <c r="CW30" t="n" s="11">
         <v>4398.0</v>
@@ -12145,13 +12142,13 @@
         <v>4383.0</v>
       </c>
       <c r="CY30" t="n" s="11">
-        <v>4369.0</v>
+        <v>4368.0</v>
       </c>
       <c r="CZ30" t="n" s="11">
         <v>4351.0</v>
       </c>
       <c r="DA30" t="n" s="11">
-        <v>4333.0</v>
+        <v>4332.0</v>
       </c>
       <c r="DB30" t="n" s="11">
         <v>4314.0</v>
@@ -12172,54 +12169,54 @@
         <v>4243.0</v>
       </c>
       <c r="DH30" t="n" s="11">
-        <v>4231.0</v>
+        <v>4232.0</v>
       </c>
       <c r="DI30" t="n" s="11">
-        <v>4216.0</v>
+        <v>4217.0</v>
       </c>
       <c r="DJ30" t="n" s="11">
         <v>4203.0</v>
       </c>
       <c r="DK30" t="n" s="11">
-        <v>4187.0</v>
+        <v>4186.0</v>
       </c>
       <c r="DL30" t="n" s="11">
         <v>4166.0</v>
       </c>
       <c r="DM30" t="n" s="11">
-        <v>4138.0</v>
+        <v>4139.0</v>
       </c>
       <c r="DN30" t="n" s="11">
-        <v>4112.0</v>
+        <v>4113.0</v>
       </c>
       <c r="DO30" t="n" s="11">
-        <v>4088.0</v>
+        <v>4087.0</v>
       </c>
       <c r="DP30" t="n" s="11">
-        <v>4054.0</v>
+        <v>4055.0</v>
       </c>
       <c r="DQ30" t="n" s="11">
-        <v>4024.0</v>
+        <v>4025.0</v>
       </c>
       <c r="DR30" t="n" s="11">
         <v>3984.0</v>
       </c>
       <c r="DS30" t="n" s="11">
-        <v>3950.0</v>
+        <v>3948.0</v>
       </c>
       <c r="DT30" t="n" s="11">
-        <v>3930.0</v>
+        <v>3929.0</v>
       </c>
       <c r="DU30" t="n" s="11">
         <v>3922.0</v>
       </c>
-      <c r="DV30" t="s" s="11">
-        <v>43</v>
+      <c r="DV30" t="n" s="11">
+        <v>3916.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s" s="14">
         <v>42</v>
@@ -12294,7 +12291,7 @@
         <v>38055.0</v>
       </c>
       <c r="Z31" t="n" s="11">
-        <v>38005.0</v>
+        <v>38004.0</v>
       </c>
       <c r="AA31" t="n" s="11">
         <v>37958.0</v>
@@ -12318,7 +12315,7 @@
         <v>38627.0</v>
       </c>
       <c r="AH31" t="n" s="11">
-        <v>38785.0</v>
+        <v>38784.0</v>
       </c>
       <c r="AI31" t="n" s="11">
         <v>38871.0</v>
@@ -12369,7 +12366,7 @@
         <v>39468.0</v>
       </c>
       <c r="AY31" t="n" s="11">
-        <v>39352.0</v>
+        <v>39351.0</v>
       </c>
       <c r="AZ31" t="n" s="11">
         <v>39182.0</v>
@@ -12414,7 +12411,7 @@
         <v>39720.0</v>
       </c>
       <c r="BN31" t="n" s="11">
-        <v>39865.0</v>
+        <v>39866.0</v>
       </c>
       <c r="BO31" t="n" s="11">
         <v>40059.0</v>
@@ -12429,7 +12426,7 @@
         <v>40487.0</v>
       </c>
       <c r="BS31" t="n" s="11">
-        <v>40706.0</v>
+        <v>40705.0</v>
       </c>
       <c r="BT31" t="n" s="11">
         <v>40776.0</v>
@@ -12516,7 +12513,7 @@
         <v>42901.0</v>
       </c>
       <c r="CV31" t="n" s="11">
-        <v>43062.0</v>
+        <v>43061.0</v>
       </c>
       <c r="CW31" t="n" s="11">
         <v>43200.0</v>
@@ -12525,7 +12522,7 @@
         <v>43330.0</v>
       </c>
       <c r="CY31" t="n" s="11">
-        <v>43441.0</v>
+        <v>43440.0</v>
       </c>
       <c r="CZ31" t="n" s="11">
         <v>43592.0</v>
@@ -12537,72 +12534,72 @@
         <v>43892.0</v>
       </c>
       <c r="DC31" t="n" s="11">
-        <v>44017.0</v>
+        <v>44016.0</v>
       </c>
       <c r="DD31" t="n" s="11">
         <v>44178.0</v>
       </c>
       <c r="DE31" t="n" s="11">
-        <v>44335.0</v>
+        <v>44337.0</v>
       </c>
       <c r="DF31" t="n" s="11">
-        <v>44476.0</v>
+        <v>44475.0</v>
       </c>
       <c r="DG31" t="n" s="11">
-        <v>44669.0</v>
+        <v>44667.0</v>
       </c>
       <c r="DH31" t="n" s="11">
-        <v>44815.0</v>
+        <v>44816.0</v>
       </c>
       <c r="DI31" t="n" s="11">
-        <v>44922.0</v>
+        <v>44926.0</v>
       </c>
       <c r="DJ31" t="n" s="11">
-        <v>45030.0</v>
+        <v>45028.0</v>
       </c>
       <c r="DK31" t="n" s="11">
-        <v>45175.0</v>
+        <v>45171.0</v>
       </c>
       <c r="DL31" t="n" s="11">
-        <v>45276.0</v>
+        <v>45278.0</v>
       </c>
       <c r="DM31" t="n" s="11">
-        <v>45283.0</v>
+        <v>45290.0</v>
       </c>
       <c r="DN31" t="n" s="11">
-        <v>45337.0</v>
+        <v>45334.0</v>
       </c>
       <c r="DO31" t="n" s="11">
-        <v>45385.0</v>
+        <v>45379.0</v>
       </c>
       <c r="DP31" t="n" s="11">
-        <v>44768.0</v>
+        <v>44771.0</v>
       </c>
       <c r="DQ31" t="n" s="11">
-        <v>44701.0</v>
+        <v>44710.0</v>
       </c>
       <c r="DR31" t="n" s="11">
-        <v>44742.0</v>
+        <v>44736.0</v>
       </c>
       <c r="DS31" t="n" s="11">
-        <v>44705.0</v>
+        <v>44698.0</v>
       </c>
       <c r="DT31" t="n" s="11">
-        <v>44798.0</v>
+        <v>44810.0</v>
       </c>
       <c r="DU31" t="n" s="11">
-        <v>44967.0</v>
-      </c>
-      <c r="DV31" t="s" s="11">
-        <v>43</v>
+        <v>45005.0</v>
+      </c>
+      <c r="DV31" t="n" s="11">
+        <v>45162.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s" s="14">
         <v>55</v>
-      </c>
-      <c r="B32" t="s" s="14">
-        <v>56</v>
       </c>
       <c r="C32" t="n" s="11">
         <v>51.8</v>
@@ -12935,7 +12932,7 @@
         <v>55.7</v>
       </c>
       <c r="DI32" t="n" s="11">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="DJ32" t="n" s="11">
         <v>55.8</v>
@@ -12944,7 +12941,7 @@
         <v>55.9</v>
       </c>
       <c r="DL32" t="n" s="11">
-        <v>56.0</v>
+        <v>55.9</v>
       </c>
       <c r="DM32" t="n" s="11">
         <v>55.9</v>
@@ -12956,7 +12953,7 @@
         <v>56.2</v>
       </c>
       <c r="DP32" t="n" s="11">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="DQ32" t="n" s="11">
         <v>55.8</v>
@@ -12973,16 +12970,16 @@
       <c r="DU32" t="n" s="11">
         <v>55.7</v>
       </c>
-      <c r="DV32" t="s" s="11">
-        <v>43</v>
+      <c r="DV32" t="n" s="11">
+        <v>55.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s" s="14">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" t="n" s="11">
         <v>5.0</v>
@@ -13351,15 +13348,15 @@
         <v>3.4</v>
       </c>
       <c r="DU33" t="n" s="11">
-        <v>3.2</v>
-      </c>
-      <c r="DV33" t="s" s="11">
-        <v>43</v>
+        <v>3.1</v>
+      </c>
+      <c r="DV33" t="n" s="11">
+        <v>3.0</v>
       </c>
     </row>
     <row r="34" ht="33.75" customHeight="true">
       <c r="A34" t="s" s="15">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35">
@@ -13715,36 +13712,36 @@
         <v>83111.0</v>
       </c>
       <c r="DN35" t="n" s="11">
-        <v>83139.0</v>
+        <v>83141.0</v>
       </c>
       <c r="DO35" t="n" s="11">
-        <v>83170.0</v>
+        <v>83167.0</v>
       </c>
       <c r="DP35" t="n" s="11">
         <v>83157.0</v>
       </c>
       <c r="DQ35" t="n" s="11">
-        <v>83161.0</v>
+        <v>83162.0</v>
       </c>
       <c r="DR35" t="n" s="11">
-        <v>83154.0</v>
+        <v>83158.0</v>
       </c>
       <c r="DS35" t="n" s="11">
-        <v>83129.0</v>
+        <v>83155.0</v>
       </c>
       <c r="DT35" t="n" s="11">
-        <v>83151.0</v>
+        <v>83182.0</v>
       </c>
       <c r="DU35" t="n" s="11">
-        <v>83154.0</v>
-      </c>
-      <c r="DV35" t="s" s="11">
-        <v>43</v>
+        <v>83208.0</v>
+      </c>
+      <c r="DV35" t="n" s="11">
+        <v>83236.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s" s="14">
         <v>42</v>
@@ -13924,19 +13921,19 @@
         <v>37643.0</v>
       </c>
       <c r="BI36" t="n" s="11">
+        <v>37639.0</v>
+      </c>
+      <c r="BJ36" t="n" s="11">
         <v>37629.0</v>
       </c>
-      <c r="BJ36" t="n" s="11">
-        <v>37619.0</v>
-      </c>
       <c r="BK36" t="n" s="11">
-        <v>37734.0</v>
+        <v>37744.0</v>
       </c>
       <c r="BL36" t="n" s="11">
-        <v>37629.0</v>
+        <v>37639.0</v>
       </c>
       <c r="BM36" t="n" s="11">
-        <v>37516.0</v>
+        <v>37526.0</v>
       </c>
       <c r="BN36" t="n" s="11">
         <v>37461.0</v>
@@ -13990,13 +13987,13 @@
         <v>36419.0</v>
       </c>
       <c r="CE36" t="n" s="11">
-        <v>36402.0</v>
+        <v>36392.0</v>
       </c>
       <c r="CF36" t="n" s="11">
-        <v>36378.0</v>
+        <v>36368.0</v>
       </c>
       <c r="CG36" t="n" s="11">
-        <v>36369.0</v>
+        <v>36359.0</v>
       </c>
       <c r="CH36" t="n" s="11">
         <v>36344.0</v>
@@ -14068,7 +14065,7 @@
         <v>36949.0</v>
       </c>
       <c r="DE36" t="n" s="11">
-        <v>36893.0</v>
+        <v>36892.0</v>
       </c>
       <c r="DF36" t="n" s="11">
         <v>36839.0</v>
@@ -14077,54 +14074,54 @@
         <v>36770.0</v>
       </c>
       <c r="DH36" t="n" s="11">
-        <v>36708.0</v>
+        <v>36709.0</v>
       </c>
       <c r="DI36" t="n" s="11">
-        <v>36693.0</v>
+        <v>36690.0</v>
       </c>
       <c r="DJ36" t="n" s="11">
-        <v>36683.0</v>
+        <v>36684.0</v>
       </c>
       <c r="DK36" t="n" s="11">
-        <v>36682.0</v>
+        <v>36684.0</v>
       </c>
       <c r="DL36" t="n" s="11">
-        <v>36560.0</v>
+        <v>36563.0</v>
       </c>
       <c r="DM36" t="n" s="11">
-        <v>36570.0</v>
+        <v>36567.0</v>
       </c>
       <c r="DN36" t="n" s="11">
-        <v>36533.0</v>
+        <v>36534.0</v>
       </c>
       <c r="DO36" t="n" s="11">
-        <v>36487.0</v>
+        <v>36480.0</v>
       </c>
       <c r="DP36" t="n" s="11">
-        <v>36722.0</v>
+        <v>36730.0</v>
       </c>
       <c r="DQ36" t="n" s="11">
-        <v>36753.0</v>
+        <v>36769.0</v>
       </c>
       <c r="DR36" t="n" s="11">
-        <v>36810.0</v>
+        <v>36829.0</v>
       </c>
       <c r="DS36" t="n" s="11">
-        <v>36952.0</v>
+        <v>36996.0</v>
       </c>
       <c r="DT36" t="n" s="11">
-        <v>36815.0</v>
+        <v>36849.0</v>
       </c>
       <c r="DU36" t="n" s="11">
-        <v>36825.0</v>
-      </c>
-      <c r="DV36" t="s" s="11">
-        <v>43</v>
+        <v>36844.0</v>
+      </c>
+      <c r="DV36" t="n" s="11">
+        <v>36833.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s" s="14">
         <v>42</v>
@@ -14304,19 +14301,19 @@
         <v>43710.0</v>
       </c>
       <c r="BI37" t="n" s="11">
-        <v>43695.0</v>
+        <v>43685.0</v>
       </c>
       <c r="BJ37" t="n" s="11">
-        <v>43668.0</v>
+        <v>43658.0</v>
       </c>
       <c r="BK37" t="n" s="11">
-        <v>43511.0</v>
+        <v>43501.0</v>
       </c>
       <c r="BL37" t="n" s="11">
-        <v>43571.0</v>
+        <v>43561.0</v>
       </c>
       <c r="BM37" t="n" s="11">
-        <v>43633.0</v>
+        <v>43623.0</v>
       </c>
       <c r="BN37" t="n" s="11">
         <v>43637.0</v>
@@ -14370,13 +14367,13 @@
         <v>43833.0</v>
       </c>
       <c r="CE37" t="n" s="11">
-        <v>43852.0</v>
+        <v>43862.0</v>
       </c>
       <c r="CF37" t="n" s="11">
-        <v>43882.0</v>
+        <v>43892.0</v>
       </c>
       <c r="CG37" t="n" s="11">
-        <v>43914.0</v>
+        <v>43924.0</v>
       </c>
       <c r="CH37" t="n" s="11">
         <v>43965.0</v>
@@ -14448,7 +14445,7 @@
         <v>45685.0</v>
       </c>
       <c r="DE37" t="n" s="11">
-        <v>45805.0</v>
+        <v>45806.0</v>
       </c>
       <c r="DF37" t="n" s="11">
         <v>45910.0</v>
@@ -14457,54 +14454,54 @@
         <v>46045.0</v>
       </c>
       <c r="DH37" t="n" s="11">
+        <v>46158.0</v>
+      </c>
+      <c r="DI37" t="n" s="11">
+        <v>46249.0</v>
+      </c>
+      <c r="DJ37" t="n" s="11">
+        <v>46315.0</v>
+      </c>
+      <c r="DK37" t="n" s="11">
+        <v>46352.0</v>
+      </c>
+      <c r="DL37" t="n" s="11">
+        <v>46522.0</v>
+      </c>
+      <c r="DM37" t="n" s="11">
+        <v>46544.0</v>
+      </c>
+      <c r="DN37" t="n" s="11">
+        <v>46607.0</v>
+      </c>
+      <c r="DO37" t="n" s="11">
+        <v>46687.0</v>
+      </c>
+      <c r="DP37" t="n" s="11">
+        <v>46427.0</v>
+      </c>
+      <c r="DQ37" t="n" s="11">
+        <v>46393.0</v>
+      </c>
+      <c r="DR37" t="n" s="11">
+        <v>46329.0</v>
+      </c>
+      <c r="DS37" t="n" s="11">
         <v>46159.0</v>
       </c>
-      <c r="DI37" t="n" s="11">
-        <v>46246.0</v>
-      </c>
-      <c r="DJ37" t="n" s="11">
-        <v>46316.0</v>
-      </c>
-      <c r="DK37" t="n" s="11">
-        <v>46354.0</v>
-      </c>
-      <c r="DL37" t="n" s="11">
-        <v>46525.0</v>
-      </c>
-      <c r="DM37" t="n" s="11">
-        <v>46541.0</v>
-      </c>
-      <c r="DN37" t="n" s="11">
-        <v>46606.0</v>
-      </c>
-      <c r="DO37" t="n" s="11">
-        <v>46683.0</v>
-      </c>
-      <c r="DP37" t="n" s="11">
-        <v>46435.0</v>
-      </c>
-      <c r="DQ37" t="n" s="11">
-        <v>46408.0</v>
-      </c>
-      <c r="DR37" t="n" s="11">
-        <v>46344.0</v>
-      </c>
-      <c r="DS37" t="n" s="11">
-        <v>46177.0</v>
-      </c>
       <c r="DT37" t="n" s="11">
-        <v>46336.0</v>
+        <v>46333.0</v>
       </c>
       <c r="DU37" t="n" s="11">
-        <v>46329.0</v>
-      </c>
-      <c r="DV37" t="s" s="11">
-        <v>43</v>
+        <v>46364.0</v>
+      </c>
+      <c r="DV37" t="n" s="11">
+        <v>46403.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s" s="14">
         <v>42</v>
@@ -14684,19 +14681,19 @@
         <v>4570.0</v>
       </c>
       <c r="BI38" t="n" s="11">
-        <v>4510.0</v>
+        <v>4500.0</v>
       </c>
       <c r="BJ38" t="n" s="11">
-        <v>4380.0</v>
+        <v>4370.0</v>
       </c>
       <c r="BK38" t="n" s="11">
-        <v>4250.0</v>
+        <v>4240.0</v>
       </c>
       <c r="BL38" t="n" s="11">
-        <v>4130.0</v>
+        <v>4120.0</v>
       </c>
       <c r="BM38" t="n" s="11">
-        <v>4000.0</v>
+        <v>3990.0</v>
       </c>
       <c r="BN38" t="n" s="11">
         <v>3860.0</v>
@@ -14750,13 +14747,13 @@
         <v>2640.0</v>
       </c>
       <c r="CE38" t="n" s="11">
-        <v>2530.0</v>
+        <v>2540.0</v>
       </c>
       <c r="CF38" t="n" s="11">
-        <v>2440.0</v>
+        <v>2450.0</v>
       </c>
       <c r="CG38" t="n" s="11">
-        <v>2350.0</v>
+        <v>2360.0</v>
       </c>
       <c r="CH38" t="n" s="11">
         <v>2290.0</v>
@@ -14864,27 +14861,27 @@
         <v>1650.0</v>
       </c>
       <c r="DQ38" t="n" s="11">
-        <v>1730.0</v>
+        <v>1720.0</v>
       </c>
       <c r="DR38" t="n" s="11">
-        <v>1740.0</v>
+        <v>1720.0</v>
       </c>
       <c r="DS38" t="n" s="11">
-        <v>1690.0</v>
+        <v>1660.0</v>
       </c>
       <c r="DT38" t="n" s="11">
         <v>1560.0</v>
       </c>
       <c r="DU38" t="n" s="11">
-        <v>1430.0</v>
-      </c>
-      <c r="DV38" t="s" s="11">
-        <v>43</v>
+        <v>1450.0</v>
+      </c>
+      <c r="DV38" t="n" s="11">
+        <v>1380.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s" s="14">
         <v>42</v>
@@ -15208,7 +15205,7 @@
         <v>44055.0</v>
       </c>
       <c r="DE39" t="n" s="11">
-        <v>44215.0</v>
+        <v>44216.0</v>
       </c>
       <c r="DF39" t="n" s="11">
         <v>44360.0</v>
@@ -15217,54 +15214,54 @@
         <v>44525.0</v>
       </c>
       <c r="DH39" t="n" s="11">
-        <v>44669.0</v>
+        <v>44668.0</v>
       </c>
       <c r="DI39" t="n" s="11">
-        <v>44796.0</v>
+        <v>44799.0</v>
       </c>
       <c r="DJ39" t="n" s="11">
-        <v>44896.0</v>
+        <v>44895.0</v>
       </c>
       <c r="DK39" t="n" s="11">
-        <v>44974.0</v>
+        <v>44972.0</v>
       </c>
       <c r="DL39" t="n" s="11">
-        <v>45175.0</v>
+        <v>45172.0</v>
       </c>
       <c r="DM39" t="n" s="11">
-        <v>45181.0</v>
+        <v>45184.0</v>
       </c>
       <c r="DN39" t="n" s="11">
-        <v>45176.0</v>
+        <v>45177.0</v>
       </c>
       <c r="DO39" t="n" s="11">
-        <v>45143.0</v>
+        <v>45147.0</v>
       </c>
       <c r="DP39" t="n" s="11">
-        <v>44785.0</v>
+        <v>44777.0</v>
       </c>
       <c r="DQ39" t="n" s="11">
-        <v>44678.0</v>
+        <v>44673.0</v>
       </c>
       <c r="DR39" t="n" s="11">
-        <v>44604.0</v>
+        <v>44609.0</v>
       </c>
       <c r="DS39" t="n" s="11">
-        <v>44487.0</v>
+        <v>44499.0</v>
       </c>
       <c r="DT39" t="n" s="11">
-        <v>44776.0</v>
+        <v>44773.0</v>
       </c>
       <c r="DU39" t="n" s="11">
-        <v>44899.0</v>
-      </c>
-      <c r="DV39" t="s" s="11">
-        <v>43</v>
+        <v>44914.0</v>
+      </c>
+      <c r="DV39" t="n" s="11">
+        <v>45023.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s" s="14">
         <v>42</v>
@@ -15606,7 +15603,7 @@
         <v>4203.0</v>
       </c>
       <c r="DK40" t="n" s="11">
-        <v>4186.0</v>
+        <v>4187.0</v>
       </c>
       <c r="DL40" t="n" s="11">
         <v>4165.0</v>
@@ -15618,33 +15615,33 @@
         <v>4114.0</v>
       </c>
       <c r="DO40" t="n" s="11">
-        <v>4088.0</v>
+        <v>4089.0</v>
       </c>
       <c r="DP40" t="n" s="11">
         <v>4055.0</v>
       </c>
       <c r="DQ40" t="n" s="11">
-        <v>4022.0</v>
+        <v>4023.0</v>
       </c>
       <c r="DR40" t="n" s="11">
-        <v>3986.0</v>
+        <v>3984.0</v>
       </c>
       <c r="DS40" t="n" s="11">
         <v>3951.0</v>
       </c>
       <c r="DT40" t="n" s="11">
-        <v>3931.0</v>
+        <v>3930.0</v>
       </c>
       <c r="DU40" t="n" s="11">
-        <v>3918.0</v>
-      </c>
-      <c r="DV40" t="s" s="11">
-        <v>43</v>
+        <v>3920.0</v>
+      </c>
+      <c r="DV40" t="n" s="11">
+        <v>3914.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s" s="14">
         <v>42</v>
@@ -15968,7 +15965,7 @@
         <v>39777.0</v>
       </c>
       <c r="DE41" t="n" s="11">
-        <v>39950.0</v>
+        <v>39951.0</v>
       </c>
       <c r="DF41" t="n" s="11">
         <v>40106.0</v>
@@ -15977,54 +15974,54 @@
         <v>40283.0</v>
       </c>
       <c r="DH41" t="n" s="11">
-        <v>40438.0</v>
+        <v>40437.0</v>
       </c>
       <c r="DI41" t="n" s="11">
-        <v>40578.0</v>
+        <v>40581.0</v>
       </c>
       <c r="DJ41" t="n" s="11">
-        <v>40693.0</v>
+        <v>40692.0</v>
       </c>
       <c r="DK41" t="n" s="11">
-        <v>40788.0</v>
+        <v>40785.0</v>
       </c>
       <c r="DL41" t="n" s="11">
-        <v>41010.0</v>
+        <v>41007.0</v>
       </c>
       <c r="DM41" t="n" s="11">
-        <v>41042.0</v>
+        <v>41045.0</v>
       </c>
       <c r="DN41" t="n" s="11">
-        <v>41062.0</v>
+        <v>41063.0</v>
       </c>
       <c r="DO41" t="n" s="11">
-        <v>41055.0</v>
+        <v>41058.0</v>
       </c>
       <c r="DP41" t="n" s="11">
-        <v>40730.0</v>
+        <v>40722.0</v>
       </c>
       <c r="DQ41" t="n" s="11">
-        <v>40656.0</v>
+        <v>40650.0</v>
       </c>
       <c r="DR41" t="n" s="11">
-        <v>40618.0</v>
+        <v>40625.0</v>
       </c>
       <c r="DS41" t="n" s="11">
-        <v>40536.0</v>
+        <v>40548.0</v>
       </c>
       <c r="DT41" t="n" s="11">
-        <v>40845.0</v>
+        <v>40843.0</v>
       </c>
       <c r="DU41" t="n" s="11">
-        <v>40981.0</v>
-      </c>
-      <c r="DV41" t="s" s="11">
-        <v>43</v>
+        <v>40994.0</v>
+      </c>
+      <c r="DV41" t="n" s="11">
+        <v>41109.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s" s="14">
         <v>42</v>
@@ -16348,7 +16345,7 @@
         <v>118.0</v>
       </c>
       <c r="DE42" t="n" s="11">
-        <v>123.0</v>
+        <v>122.0</v>
       </c>
       <c r="DF42" t="n" s="11">
         <v>128.0</v>
@@ -16357,54 +16354,54 @@
         <v>133.0</v>
       </c>
       <c r="DH42" t="n" s="11">
-        <v>137.0</v>
+        <v>138.0</v>
       </c>
       <c r="DI42" t="n" s="11">
+        <v>143.0</v>
+      </c>
+      <c r="DJ42" t="n" s="11">
+        <v>143.0</v>
+      </c>
+      <c r="DK42" t="n" s="11">
+        <v>139.0</v>
+      </c>
+      <c r="DL42" t="n" s="11">
         <v>146.0</v>
       </c>
-      <c r="DJ42" t="n" s="11">
-        <v>142.0</v>
-      </c>
-      <c r="DK42" t="n" s="11">
-        <v>137.0</v>
-      </c>
-      <c r="DL42" t="n" s="11">
-        <v>144.0</v>
-      </c>
       <c r="DM42" t="n" s="11">
-        <v>157.0</v>
+        <v>151.0</v>
       </c>
       <c r="DN42" t="n" s="11">
-        <v>138.0</v>
+        <v>140.0</v>
       </c>
       <c r="DO42" t="n" s="11">
-        <v>124.0</v>
+        <v>127.0</v>
       </c>
       <c r="DP42" t="n" s="11">
-        <v>81.0</v>
+        <v>82.0</v>
       </c>
       <c r="DQ42" t="n" s="11">
-        <v>86.0</v>
+        <v>82.0</v>
       </c>
       <c r="DR42" t="n" s="11">
-        <v>91.0</v>
+        <v>95.0</v>
       </c>
       <c r="DS42" t="n" s="11">
-        <v>104.0</v>
+        <v>105.0</v>
       </c>
       <c r="DT42" t="n" s="11">
-        <v>115.0</v>
+        <v>116.0</v>
       </c>
       <c r="DU42" t="n" s="11">
-        <v>130.0</v>
-      </c>
-      <c r="DV42" t="s" s="11">
-        <v>43</v>
+        <v>126.0</v>
+      </c>
+      <c r="DV42" t="n" s="11">
+        <v>120.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s" s="14">
         <v>42</v>
@@ -16746,45 +16743,45 @@
         <v>40835.0</v>
       </c>
       <c r="DK43" t="n" s="11">
-        <v>40925.0</v>
+        <v>40924.0</v>
       </c>
       <c r="DL43" t="n" s="11">
-        <v>41154.0</v>
+        <v>41153.0</v>
       </c>
       <c r="DM43" t="n" s="11">
-        <v>41199.0</v>
+        <v>41196.0</v>
       </c>
       <c r="DN43" t="n" s="11">
-        <v>41200.0</v>
+        <v>41203.0</v>
       </c>
       <c r="DO43" t="n" s="11">
-        <v>41179.0</v>
+        <v>41185.0</v>
       </c>
       <c r="DP43" t="n" s="11">
-        <v>40811.0</v>
+        <v>40804.0</v>
       </c>
       <c r="DQ43" t="n" s="11">
-        <v>40742.0</v>
+        <v>40732.0</v>
       </c>
       <c r="DR43" t="n" s="11">
-        <v>40709.0</v>
+        <v>40720.0</v>
       </c>
       <c r="DS43" t="n" s="11">
-        <v>40640.0</v>
+        <v>40653.0</v>
       </c>
       <c r="DT43" t="n" s="11">
-        <v>40960.0</v>
+        <v>40959.0</v>
       </c>
       <c r="DU43" t="n" s="11">
-        <v>41111.0</v>
-      </c>
-      <c r="DV43" t="s" s="11">
-        <v>43</v>
+        <v>41120.0</v>
+      </c>
+      <c r="DV43" t="n" s="11">
+        <v>41229.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s" s="14">
         <v>42</v>
@@ -17126,7 +17123,7 @@
         <v>4203.0</v>
       </c>
       <c r="DK44" t="n" s="11">
-        <v>4186.0</v>
+        <v>4187.0</v>
       </c>
       <c r="DL44" t="n" s="11">
         <v>4165.0</v>
@@ -17138,33 +17135,33 @@
         <v>4114.0</v>
       </c>
       <c r="DO44" t="n" s="11">
-        <v>4088.0</v>
+        <v>4089.0</v>
       </c>
       <c r="DP44" t="n" s="11">
         <v>4055.0</v>
       </c>
       <c r="DQ44" t="n" s="11">
-        <v>4022.0</v>
+        <v>4023.0</v>
       </c>
       <c r="DR44" t="n" s="11">
-        <v>3986.0</v>
+        <v>3984.0</v>
       </c>
       <c r="DS44" t="n" s="11">
         <v>3951.0</v>
       </c>
       <c r="DT44" t="n" s="11">
-        <v>3931.0</v>
+        <v>3930.0</v>
       </c>
       <c r="DU44" t="n" s="11">
-        <v>3918.0</v>
-      </c>
-      <c r="DV44" t="s" s="11">
-        <v>43</v>
+        <v>3920.0</v>
+      </c>
+      <c r="DV44" t="n" s="11">
+        <v>3914.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s" s="14">
         <v>42</v>
@@ -17509,45 +17506,45 @@
         <v>45111.0</v>
       </c>
       <c r="DL45" t="n" s="11">
-        <v>45319.0</v>
+        <v>45318.0</v>
       </c>
       <c r="DM45" t="n" s="11">
-        <v>45338.0</v>
+        <v>45335.0</v>
       </c>
       <c r="DN45" t="n" s="11">
-        <v>45314.0</v>
+        <v>45317.0</v>
       </c>
       <c r="DO45" t="n" s="11">
-        <v>45267.0</v>
+        <v>45274.0</v>
       </c>
       <c r="DP45" t="n" s="11">
-        <v>44866.0</v>
+        <v>44859.0</v>
       </c>
       <c r="DQ45" t="n" s="11">
-        <v>44764.0</v>
+        <v>44755.0</v>
       </c>
       <c r="DR45" t="n" s="11">
-        <v>44695.0</v>
+        <v>44704.0</v>
       </c>
       <c r="DS45" t="n" s="11">
-        <v>44591.0</v>
+        <v>44604.0</v>
       </c>
       <c r="DT45" t="n" s="11">
-        <v>44891.0</v>
+        <v>44889.0</v>
       </c>
       <c r="DU45" t="n" s="11">
-        <v>45029.0</v>
-      </c>
-      <c r="DV45" t="s" s="11">
-        <v>43</v>
+        <v>45040.0</v>
+      </c>
+      <c r="DV45" t="n" s="11">
+        <v>45143.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s" s="14">
         <v>55</v>
-      </c>
-      <c r="B46" t="s" s="14">
-        <v>56</v>
       </c>
       <c r="C46" t="n" s="11">
         <v>51.7</v>
@@ -17730,10 +17727,10 @@
         <v>53.7</v>
       </c>
       <c r="BK46" t="n" s="11">
+        <v>53.5</v>
+      </c>
+      <c r="BL46" t="n" s="11">
         <v>53.6</v>
-      </c>
-      <c r="BL46" t="n" s="11">
-        <v>53.7</v>
       </c>
       <c r="BM46" t="n" s="11">
         <v>53.8</v>
@@ -17790,7 +17787,7 @@
         <v>54.6</v>
       </c>
       <c r="CE46" t="n" s="11">
-        <v>54.6</v>
+        <v>54.7</v>
       </c>
       <c r="CF46" t="n" s="11">
         <v>54.7</v>
@@ -17918,16 +17915,16 @@
       <c r="DU46" t="n" s="11">
         <v>55.7</v>
       </c>
-      <c r="DV46" t="s" s="11">
-        <v>43</v>
+      <c r="DV46" t="n" s="11">
+        <v>55.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s" s="14">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" t="n" s="11">
         <v>5.0</v>
@@ -18110,13 +18107,13 @@
         <v>10.0</v>
       </c>
       <c r="BK47" t="n" s="11">
-        <v>9.8</v>
+        <v>9.7</v>
       </c>
       <c r="BL47" t="n" s="11">
         <v>9.5</v>
       </c>
       <c r="BM47" t="n" s="11">
-        <v>9.2</v>
+        <v>9.1</v>
       </c>
       <c r="BN47" t="n" s="11">
         <v>8.8</v>
@@ -18287,10 +18284,10 @@
         <v>3.7</v>
       </c>
       <c r="DR47" t="n" s="11">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="DS47" t="n" s="11">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="DT47" t="n" s="11">
         <v>3.4</v>
@@ -18298,43 +18295,43 @@
       <c r="DU47" t="n" s="11">
         <v>3.1</v>
       </c>
-      <c r="DV47" t="s" s="11">
-        <v>43</v>
+      <c r="DV47" t="n" s="11">
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="12">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="12">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="12">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="12">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="12">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="12">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="13">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -18381,7 +18378,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:45:11&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:14:39&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>